--- a/Assets/ERang/Excels/RewardData.xlsx
+++ b/Assets/ERang/Excels/RewardData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Rare</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,91 +66,144 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Common</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시 보상 액트1_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 볼</t>
+  </si>
+  <si>
+    <t>금광</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시 보상 액트1_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍요의 부적</t>
+  </si>
+  <si>
+    <t>루시 보상 액트1_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성령의 가호</t>
+  </si>
+  <si>
+    <t>크롤 보상 액트1_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤 보상 액트1_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시 보상 액트1_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시 보상 액트1_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시 보상 액트1_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legendary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤 보상 액트1_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤 보상 액트1_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>아귀</t>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시 보상 액트1_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 볼</t>
-  </si>
-  <si>
-    <t>금광</t>
-  </si>
-  <si>
-    <t>Legendary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시 보상 액트1_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍요의 부적</t>
-  </si>
-  <si>
-    <t>루시 보상 액트1_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성령의 가호</t>
-  </si>
-  <si>
-    <t>크롤 보상 액트1_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤 보상 액트1_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rare</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시 보상 액트1_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시 보상 액트1_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rare</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시 보상 액트1_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legendary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤 보상 액트1_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤 보상 액트1_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아귀2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 볼2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금광2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍요의 부적2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성령의 가호2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아귀3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 볼3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금광3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍요의 부적3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성령의 가호3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아귀3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 볼3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍요의 부적3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -656,7 +709,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -708,10 +761,10 @@
         <v>100101</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -723,13 +776,13 @@
         <v>1001</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4">
         <v>100301</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
@@ -744,16 +797,16 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4">
         <v>200101</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -765,16 +818,16 @@
         <v>1001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6">
         <v>300101</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -786,16 +839,16 @@
         <v>1001</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="9">
         <v>300201</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -807,16 +860,16 @@
         <v>1002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4">
         <v>100101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -828,16 +881,16 @@
         <v>1002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4">
         <v>100301</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -849,13 +902,13 @@
         <v>1002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4">
         <v>200101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
@@ -870,16 +923,16 @@
         <v>1002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6">
         <v>300101</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -891,16 +944,16 @@
         <v>1002</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="9">
         <v>300201</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -912,16 +965,16 @@
         <v>1001</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="12">
         <v>100101</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="12"/>
     </row>
@@ -933,16 +986,16 @@
         <v>1001</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4">
         <v>100301</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="4">
         <v>10</v>
@@ -956,16 +1009,16 @@
         <v>1001</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4">
         <v>200101</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="4">
         <v>10</v>
@@ -979,16 +1032,16 @@
         <v>1001</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="6">
         <v>300101</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -1000,16 +1053,16 @@
         <v>1001</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="9">
         <v>300201</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -1021,16 +1074,16 @@
         <v>1002</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="12">
         <v>100101</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="12"/>
     </row>
@@ -1042,16 +1095,16 @@
         <v>1002</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="4">
         <v>100301</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="4">
         <v>10</v>
@@ -1065,16 +1118,16 @@
         <v>1002</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="4">
         <v>200101</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G19" s="4">
         <v>10</v>
@@ -1088,16 +1141,16 @@
         <v>1002</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="6">
         <v>300101</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -1109,16 +1162,16 @@
         <v>1002</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="9">
         <v>300201</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="11"/>
     </row>

--- a/Assets/ERang/Excels/RewardData.xlsx
+++ b/Assets/ERang/Excels/RewardData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1226B55-0A4E-435A-9B95-8F66BFCEEBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3656C2D2-8E61-4FFE-B431-9266A47BCF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8760" yWindow="2900" windowWidth="20370" windowHeight="17430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>Rare</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -131,6 +131,14 @@
   <si>
     <t>HP</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -685,25 +693,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="2" width="14.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.08203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="11.125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="8.75" style="13"/>
+    <col min="5" max="5" width="16" style="26" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="11.08203125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="13" customWidth="1"/>
+    <col min="13" max="16384" width="8.75" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -717,28 +726,31 @@
         <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -752,18 +764,21 @@
         <v>100101</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="1"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3">
         <v>1001</v>
       </c>
@@ -777,18 +792,21 @@
         <v>100301</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="1"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <v>1001</v>
       </c>
@@ -802,18 +820,21 @@
         <v>200101</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="1"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>1001</v>
       </c>
@@ -827,18 +848,21 @@
         <v>300101</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="1"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="14">
         <v>1001</v>
       </c>
@@ -851,19 +875,22 @@
       <c r="D6" s="15">
         <v>300201</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="18">
         <v>1001</v>
       </c>
@@ -875,22 +902,25 @@
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="20">
+      <c r="H7" s="20">
         <v>30</v>
       </c>
-      <c r="H7" s="20">
+      <c r="I7" s="20">
         <v>50</v>
       </c>
-      <c r="I7" s="20"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" ht="18" thickBot="1">
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" thickBot="1">
       <c r="A8" s="22">
         <v>1001</v>
       </c>
@@ -902,22 +932,25 @@
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="G8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="24"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="24">
-        <v>1</v>
-      </c>
+      <c r="I8" s="24"/>
       <c r="J8" s="24">
         <v>1</v>
       </c>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="24">
+        <v>1</v>
+      </c>
+      <c r="L8" s="25"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="3">
         <v>1001</v>
       </c>
@@ -931,18 +964,21 @@
         <v>100101</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="1"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1001</v>
       </c>
@@ -956,18 +992,21 @@
         <v>100301</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="1"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>1001</v>
       </c>
@@ -981,18 +1020,21 @@
         <v>200101</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11" s="1"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>1001</v>
       </c>
@@ -1006,18 +1048,21 @@
         <v>300101</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" thickBot="1">
+      <c r="K12" s="1"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" ht="18" thickBot="1">
       <c r="A13" s="7">
         <v>1001</v>
       </c>
@@ -1030,19 +1075,22 @@
       <c r="D13" s="8">
         <v>300201</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="11">
         <v>1002</v>
       </c>
@@ -1055,19 +1103,22 @@
       <c r="D14" s="11">
         <v>100101</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14" s="12"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>1002</v>
       </c>
@@ -1081,20 +1132,23 @@
         <v>100301</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15" s="1"/>
+      <c r="L15" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>1002</v>
       </c>
@@ -1108,20 +1162,23 @@
         <v>200101</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="K16" s="1"/>
+      <c r="L16" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>1002</v>
       </c>
@@ -1135,18 +1192,21 @@
         <v>300101</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="18" thickBot="1">
+      <c r="K17" s="1"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" thickBot="1">
       <c r="A18" s="7">
         <v>1002</v>
       </c>
@@ -1159,19 +1219,22 @@
       <c r="D18" s="8">
         <v>300201</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="11">
         <v>1002</v>
       </c>
@@ -1184,19 +1247,22 @@
       <c r="D19" s="11">
         <v>100101</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="K19" s="12"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="11">
         <v>1002</v>
       </c>
@@ -1210,20 +1276,23 @@
         <v>100301</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="K20" s="1"/>
+      <c r="L20" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="11">
         <v>1002</v>
       </c>
@@ -1237,20 +1306,23 @@
         <v>200101</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="K21" s="1"/>
+      <c r="L21" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="11">
         <v>1002</v>
       </c>
@@ -1264,18 +1336,21 @@
         <v>300101</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" ht="18" thickBot="1">
+      <c r="K22" s="1"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" thickBot="1">
       <c r="A23" s="11">
         <v>1002</v>
       </c>
@@ -1288,17 +1363,20 @@
       <c r="D23" s="8">
         <v>300201</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/RewardData.xlsx
+++ b/Assets/ERang/Excels/RewardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3656C2D2-8E61-4FFE-B431-9266A47BCF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F617D8FA-9373-4639-A720-C2C3878D8618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="2900" windowWidth="20370" windowHeight="17430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63540" yWindow="2655" windowWidth="20370" windowHeight="17430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
   <si>
     <t>Rare</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -52,10 +52,6 @@
   </si>
   <si>
     <t>#CardNameDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Grade</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -139,6 +135,10 @@
   <si>
     <t>Card</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.5"/>
@@ -704,8 +704,8 @@
     <col min="1" max="2" width="14.08203125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="26" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16" style="26" customWidth="1"/>
     <col min="7" max="7" width="11.08203125" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="11.08203125" style="13" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" style="13" customWidth="1"/>
@@ -726,28 +726,28 @@
         <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -758,19 +758,19 @@
         <v>1001</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3">
         <v>100101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -786,16 +786,16 @@
         <v>1001</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3">
         <v>100301</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>1001</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
         <v>200101</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1</v>
@@ -842,19 +842,19 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5">
         <v>300101</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -870,19 +870,19 @@
         <v>1001</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="15">
         <v>300201</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>14</v>
+      <c r="E6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
@@ -898,18 +898,16 @@
         <v>1001</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="G7" s="20"/>
       <c r="H7" s="20">
         <v>30</v>
       </c>
@@ -928,18 +926,16 @@
         <v>1001</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>27</v>
-      </c>
+      <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24">
@@ -958,19 +954,19 @@
         <v>1002</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3">
         <v>100101</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -986,16 +982,16 @@
         <v>1002</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3">
         <v>100301</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -1014,16 +1010,16 @@
         <v>1002</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3">
         <v>200101</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>1</v>
@@ -1042,19 +1038,19 @@
         <v>1002</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5">
         <v>300101</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1070,19 +1066,19 @@
         <v>1002</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="8">
         <v>300201</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>14</v>
+      <c r="E13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1098,19 +1094,19 @@
         <v>1001</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="11">
         <v>100101</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>22</v>
+      <c r="E14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1126,16 +1122,16 @@
         <v>1001</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3">
         <v>100301</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -1156,16 +1152,16 @@
         <v>1001</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3">
         <v>200101</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>1</v>
@@ -1186,19 +1182,19 @@
         <v>1001</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5">
         <v>300101</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1214,19 +1210,19 @@
         <v>1001</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="8">
         <v>300201</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>14</v>
+      <c r="E18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1242,19 +1238,19 @@
         <v>1002</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="11">
         <v>100101</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>22</v>
+      <c r="E19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1270,16 +1266,16 @@
         <v>1002</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3">
         <v>100301</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>0</v>
@@ -1300,16 +1296,16 @@
         <v>1002</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3">
         <v>200101</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>1</v>
@@ -1330,19 +1326,19 @@
         <v>1002</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="5">
         <v>300101</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1358,19 +1354,19 @@
         <v>1002</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="8">
         <v>300201</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>14</v>
+      <c r="E23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>

--- a/Assets/ERang/Excels/RewardData.xlsx
+++ b/Assets/ERang/Excels/RewardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F617D8FA-9373-4639-A720-C2C3878D8618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99944DBD-AE04-4811-8414-83D6DC308541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63540" yWindow="2655" windowWidth="20370" windowHeight="17430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58815" yWindow="1875" windowWidth="23220" windowHeight="17430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -137,7 +137,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Grade</t>
+    <t>CardGrade</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -696,17 +696,17 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="2" width="14.08203125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="16" style="26" customWidth="1"/>
-    <col min="7" max="7" width="11.08203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="13" customWidth="1"/>
     <col min="8" max="11" width="11.08203125" style="13" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" style="13" customWidth="1"/>
     <col min="13" max="16384" width="8.75" style="13"/>
@@ -722,17 +722,17 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>17</v>
@@ -760,17 +760,17 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3">
         <v>100101</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -788,17 +788,17 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>100301</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -816,17 +816,17 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>200101</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -844,17 +844,17 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5">
         <v>300101</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -872,17 +872,17 @@
       <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="15">
         <v>300201</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>9</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
@@ -900,14 +900,14 @@
       <c r="C7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="20"/>
       <c r="H7" s="20">
         <v>30</v>
       </c>
@@ -928,14 +928,14 @@
       <c r="C8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24">
@@ -956,17 +956,17 @@
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3">
         <v>100101</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -984,17 +984,17 @@
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100301</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1012,17 +1012,17 @@
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>200101</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1040,17 +1040,17 @@
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5">
         <v>300101</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1068,17 +1068,17 @@
       <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="8">
         <v>300201</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1096,17 +1096,17 @@
       <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="11">
         <v>100101</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1124,17 +1124,17 @@
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>100301</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1154,17 +1154,17 @@
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
         <v>200101</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1184,17 +1184,17 @@
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5">
         <v>300101</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1212,17 +1212,17 @@
       <c r="C18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="8">
         <v>300201</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1240,17 +1240,17 @@
       <c r="C19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="11">
         <v>100101</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1268,17 +1268,17 @@
       <c r="C20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100301</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1298,17 +1298,17 @@
       <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
         <v>200101</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1328,17 +1328,17 @@
       <c r="C22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5">
         <v>300101</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1356,17 +1356,17 @@
       <c r="C23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="8">
         <v>300201</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
